--- a/Project2-Stream-Compaction/Performance Plots.xlsx
+++ b/Project2-Stream-Compaction/Performance Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CIS 565\Project2-Number-Algorithms\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F1B7B-2FD9-434E-AD05-BA328F48DB52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF72825-4F1B-41C2-B376-0719977A54D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B17210A4-8A24-4154-989A-647E08143A94}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,6 +120,4175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Performance on Power of 2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t>smaller is better</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA86-47F8-9139-F61FBFD6E54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7599999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA86-47F8-9139-F61FBFD6E54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work efficient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA86-47F8-9139-F61FBFD6E54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6160000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.79E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA86-47F8-9139-F61FBFD6E54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650852120"/>
+        <c:axId val="650849824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650852120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650849824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650849824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650852120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Scan Performance on Not Power of 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>smaller is better</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1658-4688-B70C-2C9461EC2E1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1658-4688-B70C-2C9461EC2E1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work efficient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1658-4688-B70C-2C9461EC2E1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1658-4688-B70C-2C9461EC2E1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647782472"/>
+        <c:axId val="647784440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647782472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647784440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647784440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647782472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Stream Compaction Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>smaller is better</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU(wo/Scan,Power 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$23:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A84-4ACE-936F-B04559A97C41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU(wo/Scan, Not Power 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$23:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A84-4ACE-936F-B04559A97C41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU(w/Scan)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A84-4ACE-936F-B04559A97C41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work efficient(Power 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$23:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A84-4ACE-936F-B04559A97C41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work efficient(Not Power 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3A84-4ACE-936F-B04559A97C41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="763418112"/>
+        <c:axId val="763420736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="763418112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763420736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="763420736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763418112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7AA4A0-4A3C-4667-A066-9808C8539048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E1E12D-4E25-486B-A774-8465204B4BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1708C783-5A0B-475D-907B-0E463F79DCA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18A9F00-6E45-474D-9AF3-954CFE99F5D1}">
   <dimension ref="D4:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,5 +5015,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>